--- a/datasets/Included_october.xlsx
+++ b/datasets/Included_october.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{D3385374-F018-41B7-9646-6BB4D9E0CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EFE433D-557C-4DFB-9F17-E82E8309D063}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="8_{D3385374-F018-41B7-9646-6BB4D9E0CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84775204-0F7A-459A-99FC-D196A15A724E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$35</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="330">
   <si>
     <t>Refid</t>
   </si>
@@ -736,9 +748,6 @@
     <t>Caucasians aged 40 to 80 living in France</t>
   </si>
   <si>
-    <t>32509257</t>
-  </si>
-  <si>
     <t>Fisher, Jared A., Freeman, Laura E. Beane, Hofmann, Jonathan N., Blair, Aaron, Parks, Christine G., Thorne, Peter S., Ward, Mary H., Jones, Rena R.</t>
   </si>
   <si>
@@ -769,9 +778,6 @@
     <t>They looked at pesticide applicators and their spouses, but they produced different models for each.</t>
   </si>
   <si>
-    <t>32509363</t>
-  </si>
-  <si>
     <t>Kalkowska, Dominika A., Boender, Gert Jan, Smit, Lidwien A. M., Baliatsas, Christos, Yzermans, Joris, Heederik, Dick J. J., Hagenaars, Thomas J.</t>
   </si>
   <si>
@@ -992,6 +998,33 @@
   </si>
   <si>
     <t>Netherlands</t>
+  </si>
+  <si>
+    <t>They include GP as random intercept</t>
+  </si>
+  <si>
+    <t>32512033</t>
+  </si>
+  <si>
+    <t>Simões, Mariana, Janssen, Nicole, Heederik, Dick JJ, Smit, Lidwien AM, Vermeulen, Roel, Huss, Anke</t>
+  </si>
+  <si>
+    <t>Residential proximity to livestock animals and mortality from respiratory diseases in The Netherlands: A prospective census-based cohort study</t>
+  </si>
+  <si>
+    <t>107140</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>10.1016/j.envint.2022.107140</t>
+  </si>
+  <si>
+    <t>All inhabitants aged 30 years or older on 01-01-2004 and registered in the Dutch population registry (excluding those within 2000 m of border with Germany or Belgium)</t>
+  </si>
+  <si>
+    <t>Incidence Estimates</t>
   </si>
 </sst>
 </file>
@@ -1017,12 +1050,24 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1037,12 +1082,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,18 +1406,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB34"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="29" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1405,63 +1459,66 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AD1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
@@ -1491,40 +1548,46 @@
       <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
-        <v>322</v>
+      <c r="M2">
+        <v>2</v>
       </c>
       <c r="N2" t="s">
+        <v>320</v>
+      </c>
+      <c r="O2" t="s">
         <v>39</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AD2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -1547,43 +1610,49 @@
       <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>52</v>
       </c>
-      <c r="W3" t="s">
-        <v>53</v>
-      </c>
       <c r="X3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="18.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
         <v>57</v>
@@ -1606,46 +1675,52 @@
       <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>62</v>
       </c>
-      <c r="W4" t="s">
-        <v>53</v>
-      </c>
       <c r="X4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="s">
         <v>53</v>
       </c>
       <c r="AA4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" t="s">
         <v>63</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="AD4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="18.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E5" t="s">
         <v>68</v>
@@ -1668,45 +1743,51 @@
       <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="M5" t="s">
-        <v>322</v>
+      <c r="M5">
+        <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>320</v>
+      </c>
+      <c r="O5" t="s">
         <v>39</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>71</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>72</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>73</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>51</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>74</v>
       </c>
-      <c r="W5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>53</v>
+      <c r="X5" t="s">
+        <v>42</v>
       </c>
       <c r="AA5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB5" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="AD5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="18.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B6" t="s">
@@ -1716,7 +1797,7 @@
         <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E6" t="s">
         <v>80</v>
@@ -1739,40 +1820,46 @@
       <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>50</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>39</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>83</v>
       </c>
-      <c r="W6" t="s">
-        <v>53</v>
-      </c>
       <c r="X6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="18.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
@@ -1795,44 +1882,50 @@
       <c r="L7" t="s">
         <v>70</v>
       </c>
-      <c r="M7" t="s">
-        <v>322</v>
+      <c r="M7">
+        <v>1</v>
       </c>
       <c r="N7" t="s">
+        <v>320</v>
+      </c>
+      <c r="O7" t="s">
         <v>39</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>40</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>71</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>72</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>73</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>74</v>
       </c>
-      <c r="W7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>53</v>
+      <c r="X7" t="s">
+        <v>42</v>
       </c>
       <c r="AA7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB7" t="s">
         <v>90</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="AD7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1843,7 +1936,7 @@
         <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E8" t="s">
         <v>95</v>
@@ -1866,37 +1959,40 @@
       <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>50</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>39</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>100</v>
       </c>
-      <c r="W8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>53</v>
+      <c r="X8" t="s">
+        <v>42</v>
       </c>
       <c r="AA8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="AD8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="18.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E9" t="s">
         <v>104</v>
@@ -1919,29 +2015,35 @@
       <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="3">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>107</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>99</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>108</v>
       </c>
-      <c r="W9" t="s">
-        <v>53</v>
-      </c>
       <c r="X9" t="s">
         <v>53</v>
       </c>
       <c r="Y9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Z9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="AA9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -1952,7 +2054,7 @@
         <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
         <v>112</v>
@@ -1975,37 +2077,40 @@
       <c r="L10" t="s">
         <v>99</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>50</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>39</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>100</v>
       </c>
-      <c r="W10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>53</v>
+      <c r="X10" t="s">
+        <v>42</v>
       </c>
       <c r="AA10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="AD10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="18.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
         <v>118</v>
@@ -2028,38 +2133,44 @@
       <c r="L11" t="s">
         <v>121</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
         <v>107</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>39</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>40</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>51</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>122</v>
       </c>
-      <c r="W11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="X11" t="s">
         <v>53</v>
       </c>
       <c r="Z11" t="s">
         <v>53</v>
       </c>
       <c r="AA11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB11" t="s">
         <v>90</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="AD11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -2070,7 +2181,7 @@
         <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G12" t="s">
         <v>127</v>
@@ -2090,36 +2201,39 @@
       <c r="L12" t="s">
         <v>128</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>50</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>39</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>100</v>
       </c>
-      <c r="W12" t="s">
-        <v>53</v>
-      </c>
       <c r="X12" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z12" t="s">
         <v>53</v>
       </c>
       <c r="AA12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB12" t="s">
         <v>129</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="AD12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B13" t="s">
@@ -2149,46 +2263,50 @@
       <c r="L13" t="s">
         <v>99</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="3"/>
+      <c r="N13" t="s">
         <v>107</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>99</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>122</v>
       </c>
-      <c r="W13" t="s">
-        <v>53</v>
-      </c>
       <c r="X13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
       </c>
       <c r="AA13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB13" t="s">
         <v>90</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="AD13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>137</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E14" t="s">
         <v>140</v>
@@ -2211,36 +2329,39 @@
       <c r="L14" t="s">
         <v>38</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>50</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>39</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>100</v>
       </c>
-      <c r="W14" t="s">
-        <v>53</v>
-      </c>
       <c r="X14" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z14" t="s">
         <v>53</v>
       </c>
       <c r="AA14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="AD14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2267,29 +2388,35 @@
       <c r="L15" t="s">
         <v>147</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>107</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>39</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>40</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>51</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="W15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="X15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -2320,27 +2447,30 @@
       <c r="L16" t="s">
         <v>38</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>50</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>39</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>100</v>
       </c>
-      <c r="W16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>53</v>
+      <c r="X16" t="s">
+        <v>42</v>
       </c>
       <c r="AA16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="AD16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B17" t="s">
@@ -2376,29 +2506,35 @@
       <c r="L17" t="s">
         <v>161</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
         <v>50</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>39</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>162</v>
       </c>
-      <c r="W17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>53</v>
+      <c r="X17" t="s">
+        <v>42</v>
       </c>
       <c r="AA17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB17" t="s">
         <v>129</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="AD17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>32507707</v>
       </c>
@@ -2409,7 +2545,7 @@
         <v>165</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E18" t="s">
         <v>166</v>
@@ -2435,42 +2571,45 @@
       <c r="L18" t="s">
         <v>170</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>171</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>39</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>40</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>72</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>51</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>172</v>
       </c>
-      <c r="W18" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>53</v>
+      <c r="X18" t="s">
+        <v>42</v>
       </c>
       <c r="AA18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB18" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="AD18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>32507767</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D19" t="s">
@@ -2500,51 +2639,57 @@
       <c r="L19" t="s">
         <v>179</v>
       </c>
-      <c r="M19" t="s">
-        <v>322</v>
+      <c r="M19">
+        <v>1</v>
       </c>
       <c r="N19" t="s">
+        <v>320</v>
+      </c>
+      <c r="O19" t="s">
         <v>39</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>40</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>71</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>180</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>72</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>181</v>
       </c>
-      <c r="W19" t="s">
-        <v>53</v>
-      </c>
       <c r="X19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s">
         <v>53</v>
       </c>
       <c r="AA19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="AD19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>32507932</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C20" t="s">
@@ -2574,51 +2719,57 @@
       <c r="L20" t="s">
         <v>187</v>
       </c>
-      <c r="M20" t="s">
-        <v>322</v>
+      <c r="M20" s="3">
+        <v>1</v>
       </c>
       <c r="N20" t="s">
+        <v>320</v>
+      </c>
+      <c r="O20" t="s">
         <v>39</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>40</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>71</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>51</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>181</v>
       </c>
-      <c r="W20" t="s">
-        <v>53</v>
-      </c>
       <c r="X20" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y20" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s">
         <v>53</v>
       </c>
       <c r="AA20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB20" t="s">
         <v>75</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AD20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>32508130</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D21" t="s">
@@ -2648,36 +2799,42 @@
       <c r="L21" t="s">
         <v>195</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
         <v>196</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>39</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>40</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>51</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="W21" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>53</v>
+      <c r="X21" t="s">
+        <v>42</v>
       </c>
       <c r="AA21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB21" t="s">
         <v>129</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="AD21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>32508377</v>
       </c>
       <c r="B22" t="s">
@@ -2710,36 +2867,42 @@
       <c r="L22" t="s">
         <v>205</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>206</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>40</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="W22" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>53</v>
+      <c r="X22" t="s">
+        <v>42</v>
       </c>
       <c r="AA22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB22" t="s">
         <v>90</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AD22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>32508518</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D23" t="s">
@@ -2769,42 +2932,48 @@
       <c r="L23" t="s">
         <v>216</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
         <v>50</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>51</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="W23" t="s">
-        <v>53</v>
-      </c>
       <c r="X23" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z23" t="s">
         <v>53</v>
       </c>
       <c r="AA23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB23" t="s">
         <v>90</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="AD23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>32508669</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D24" t="s">
@@ -2834,42 +3003,48 @@
       <c r="L24" t="s">
         <v>225</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="3">
+        <v>8</v>
+      </c>
+      <c r="N24" t="s">
         <v>50</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>39</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>40</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>51</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>226</v>
       </c>
-      <c r="W24" t="s">
-        <v>53</v>
-      </c>
       <c r="X24" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="s">
         <v>53</v>
       </c>
       <c r="AA24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB24" t="s">
         <v>75</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="AD24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
         <v>32509233</v>
       </c>
       <c r="B25" t="s">
@@ -2905,49 +3080,55 @@
       <c r="L25" t="s">
         <v>234</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
         <v>235</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>99</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>236</v>
       </c>
-      <c r="W25" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>53</v>
+      <c r="X25" t="s">
+        <v>42</v>
       </c>
       <c r="AA25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="AD25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>32509257</v>
+      </c>
+      <c r="B26" t="s">
         <v>237</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>239</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>240</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>241</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>242</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>243</v>
-      </c>
-      <c r="H26" t="s">
-        <v>244</v>
       </c>
       <c r="I26" t="s">
         <v>36</v>
@@ -2956,72 +3137,78 @@
         <v>3</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26" t="s">
+        <v>50</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R26" t="s">
+        <v>180</v>
+      </c>
+      <c r="S26" t="s">
+        <v>72</v>
+      </c>
+      <c r="V26" t="s">
+        <v>51</v>
+      </c>
+      <c r="W26" t="s">
         <v>245</v>
       </c>
-      <c r="M26" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>180</v>
-      </c>
-      <c r="R26" t="s">
-        <v>72</v>
-      </c>
-      <c r="U26" t="s">
-        <v>51</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="X26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC26" t="s">
         <v>246</v>
       </c>
-      <c r="W26" t="s">
-        <v>53</v>
-      </c>
-      <c r="X26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB26" t="s">
+      <c r="AD26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>32509363</v>
+      </c>
+      <c r="B27" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
         <v>248</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>249</v>
-      </c>
-      <c r="C27" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" t="s">
-        <v>251</v>
       </c>
       <c r="E27" t="s">
         <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
         <v>215</v>
@@ -3036,69 +3223,75 @@
         <v>60</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
-      </c>
-      <c r="M27" t="s">
-        <v>322</v>
+        <v>252</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
       </c>
       <c r="N27" t="s">
+        <v>320</v>
+      </c>
+      <c r="O27" t="s">
         <v>39</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>40</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>71</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>72</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>73</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>74</v>
       </c>
-      <c r="W27" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>53</v>
+      <c r="X27" t="s">
+        <v>42</v>
       </c>
       <c r="AA27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB27" t="s">
         <v>90</v>
       </c>
-      <c r="AB27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC27" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>32509432</v>
       </c>
       <c r="B28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" t="s">
         <v>256</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>257</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>258</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>259</v>
       </c>
-      <c r="F28" t="s">
-        <v>260</v>
-      </c>
-      <c r="G28" t="s">
-        <v>261</v>
-      </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I28" t="s">
         <v>36</v>
@@ -3110,48 +3303,51 @@
         <v>98</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
-      </c>
-      <c r="M28" t="s">
+        <v>260</v>
+      </c>
+      <c r="N28" t="s">
         <v>50</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>40</v>
       </c>
-      <c r="V28" t="s">
-        <v>263</v>
-      </c>
-      <c r="W28" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>53</v>
+      <c r="W28" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="X28" t="s">
+        <v>42</v>
       </c>
       <c r="AA28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AD28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>32509433</v>
       </c>
       <c r="B29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" t="s">
         <v>264</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
         <v>265</v>
-      </c>
-      <c r="D29" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" t="s">
-        <v>241</v>
-      </c>
-      <c r="F29" t="s">
-        <v>242</v>
-      </c>
-      <c r="G29" t="s">
-        <v>267</v>
       </c>
       <c r="H29" t="s">
         <v>204</v>
@@ -3166,54 +3362,57 @@
         <v>98</v>
       </c>
       <c r="L29" t="s">
-        <v>262</v>
-      </c>
-      <c r="M29" t="s">
+        <v>260</v>
+      </c>
+      <c r="N29" t="s">
         <v>50</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>40</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>51</v>
       </c>
-      <c r="V29" t="s">
-        <v>263</v>
-      </c>
-      <c r="W29" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>53</v>
+      <c r="W29" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="X29" t="s">
+        <v>42</v>
       </c>
       <c r="AA29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB29" t="s">
         <v>129</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>32509553</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>32509553</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>269</v>
-      </c>
-      <c r="C30" t="s">
-        <v>270</v>
-      </c>
-      <c r="D30" t="s">
-        <v>271</v>
       </c>
       <c r="E30" t="s">
         <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H30" t="s">
         <v>169</v>
@@ -3228,69 +3427,75 @@
         <v>60</v>
       </c>
       <c r="L30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>320</v>
+      </c>
+      <c r="O30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>71</v>
+      </c>
+      <c r="S30" t="s">
+        <v>72</v>
+      </c>
+      <c r="T30" t="s">
+        <v>73</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W30" t="s">
+        <v>272</v>
+      </c>
+      <c r="X30" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC30" t="s">
         <v>273</v>
       </c>
-      <c r="M30" t="s">
-        <v>322</v>
-      </c>
-      <c r="N30" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" t="s">
-        <v>40</v>
-      </c>
-      <c r="P30" t="s">
-        <v>71</v>
-      </c>
-      <c r="R30" t="s">
-        <v>72</v>
-      </c>
-      <c r="S30" t="s">
-        <v>73</v>
-      </c>
-      <c r="U30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V30" t="s">
-        <v>274</v>
-      </c>
-      <c r="W30" t="s">
-        <v>53</v>
-      </c>
-      <c r="X30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AD30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>32509566</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" t="s">
         <v>276</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>277</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>278</v>
-      </c>
-      <c r="E31" t="s">
-        <v>279</v>
-      </c>
-      <c r="F31" t="s">
-        <v>280</v>
       </c>
       <c r="H31" t="s">
         <v>178</v>
@@ -3305,63 +3510,69 @@
         <v>37</v>
       </c>
       <c r="L31" t="s">
+        <v>279</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" t="s">
+        <v>280</v>
+      </c>
+      <c r="X31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC31" t="s">
         <v>281</v>
       </c>
-      <c r="M31" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" t="s">
-        <v>39</v>
-      </c>
-      <c r="O31" t="s">
-        <v>40</v>
-      </c>
-      <c r="V31" t="s">
-        <v>282</v>
-      </c>
-      <c r="W31" t="s">
-        <v>53</v>
-      </c>
-      <c r="X31" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AD31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>32509660</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" t="s">
         <v>284</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>285</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="F32" t="s">
-        <v>288</v>
-      </c>
-      <c r="G32" t="s">
-        <v>289</v>
-      </c>
       <c r="H32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I32" t="s">
         <v>36</v>
@@ -3373,63 +3584,66 @@
         <v>98</v>
       </c>
       <c r="L32" t="s">
+        <v>288</v>
+      </c>
+      <c r="N32" t="s">
+        <v>320</v>
+      </c>
+      <c r="O32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" t="s">
+        <v>40</v>
+      </c>
+      <c r="V32" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC32" t="s">
         <v>290</v>
       </c>
-      <c r="M32" t="s">
-        <v>322</v>
-      </c>
-      <c r="N32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O32" t="s">
-        <v>40</v>
-      </c>
-      <c r="U32" t="s">
-        <v>51</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="AD32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>32509722</v>
+      </c>
+      <c r="B33" t="s">
         <v>291</v>
       </c>
-      <c r="W32" t="s">
-        <v>53</v>
-      </c>
-      <c r="X32" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB32" t="s">
+      <c r="C33" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32509722</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>293</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>294</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>295</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>296</v>
-      </c>
-      <c r="F33" t="s">
-        <v>297</v>
-      </c>
-      <c r="G33" t="s">
-        <v>298</v>
       </c>
       <c r="H33" t="s">
         <v>178</v>
@@ -3446,70 +3660,76 @@
       <c r="L33" t="s">
         <v>179</v>
       </c>
-      <c r="M33" t="s">
-        <v>322</v>
+      <c r="M33">
+        <v>1</v>
       </c>
       <c r="N33" t="s">
+        <v>320</v>
+      </c>
+      <c r="O33" t="s">
         <v>39</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>40</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>71</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>180</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>72</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>51</v>
       </c>
-      <c r="V33" t="s">
-        <v>299</v>
-      </c>
       <c r="W33" t="s">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="X33" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y33" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32511496</v>
       </c>
       <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" t="s">
         <v>301</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>302</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>303</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>304</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>305</v>
-      </c>
-      <c r="G34" t="s">
-        <v>306</v>
-      </c>
-      <c r="H34" t="s">
-        <v>307</v>
       </c>
       <c r="I34" t="s">
         <v>36</v>
@@ -3521,38 +3741,368 @@
         <v>37</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
-      </c>
-      <c r="M34" t="s">
+        <v>306</v>
+      </c>
+      <c r="M34">
+        <v>17</v>
+      </c>
+      <c r="N34" t="s">
         <v>50</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>39</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>40</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>51</v>
       </c>
-      <c r="V34" t="s">
-        <v>309</v>
-      </c>
       <c r="W34" t="s">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="X34" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y34" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z34" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D35" t="s">
+        <v>327</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD35" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB34" xr:uid="{DEBC5FCC-A609-4F5A-8E9B-D24754B9E56E}"/>
+  <autoFilter ref="A1:AD35" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Cohort"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3761854A-7C15-40FC-A202-6FA85BBA441F}">
+  <dimension ref="A1:A47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>